--- a/corona-Heidelberg.xlsx
+++ b/corona-Heidelberg.xlsx
@@ -325,188 +325,191 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$5:$A$64</c:f>
+              <c:f>Sheet1!$A$5:$A$65</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43947</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43946</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43945</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43940</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43939</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43938</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43937</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43936</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43935</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43934</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43933</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43932</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43931</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43930</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43929</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43928</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43927</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43926</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43925</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43924</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43923</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43922</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43921</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43920</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43919</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43918</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>43917</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>43916</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>43915</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>43914</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>43913</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>43912</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>43911</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>43910</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>43909</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>43908</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>43907</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43906</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>43905</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>43904</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>43903</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>43902</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>43901</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>43900</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>43899</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>43898</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>43897</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>43896</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>43895</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>43894</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>43893</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>43892</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>43891</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>43890</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>43889</c:v>
                 </c:pt>
               </c:numCache>
@@ -514,24 +517,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$5:$B$64</c:f>
+              <c:f>Sheet1!$B$5:$B$65</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="1">
                   <c:v>289</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>289</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>288</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>281</c:v>
+                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>281</c:v>
@@ -540,130 +543,130 @@
                   <c:v>281</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>280</c:v>
+                  <c:v>281</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>280</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>277</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>275</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>273</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>273</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>271</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>269</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>267</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>264</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>257</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>254</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>246</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>243</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>234</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>232</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>226</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>213</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>195</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>186</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>171</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>155</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>143</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>133</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>122</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>118</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>111</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>108</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>104</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>5</c:v>
@@ -672,16 +675,16 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="52">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>0</c:v>
@@ -693,6 +696,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -732,188 +738,191 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$5:$A$64</c:f>
+              <c:f>Sheet1!$A$5:$A$65</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43947</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43946</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43945</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43940</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43939</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43938</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43937</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43936</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43935</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43934</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43933</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43932</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43931</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43930</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43929</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43928</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43927</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43926</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43925</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43924</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43923</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43922</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43921</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43920</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43919</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43918</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>43917</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>43916</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>43915</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>43914</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>43913</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>43912</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>43911</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>43910</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>43909</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>43908</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>43907</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43906</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>43905</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>43904</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>43903</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>43902</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>43901</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>43900</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>43899</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>43898</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>43897</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>43896</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>43895</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>43894</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>43893</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>43892</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>43891</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>43890</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>43889</c:v>
                 </c:pt>
               </c:numCache>
@@ -921,174 +930,174 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$5:$C$64</c:f>
+              <c:f>Sheet1!$C$5:$C$65</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="1">
+                  <c:v>185</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>192</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>185</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>187</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>180</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>167</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>169</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>147</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>146</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>151</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>170</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>187</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>210</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>232</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>308</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>308</c:v>
                 </c:pt>
                 <c:pt idx="18">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="19">
                   <c:v>322</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>340</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>348</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>356</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>362</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>374</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>386</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>393</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>392</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>398</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>424</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>404</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>382</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>357</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>358</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>336</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="35">
                   <c:v>306</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>306</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>328</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>264</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>218</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>187</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>164</c:v>
                 </c:pt>
                 <c:pt idx="43">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="44">
                   <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>83</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>78</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="52">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>0</c:v>
@@ -1100,6 +1109,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1139,119 +1151,122 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$5:$A$41</c:f>
+              <c:f>Sheet1!$A$5:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43947</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43946</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43945</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43940</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43939</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43938</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43937</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43936</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43935</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43934</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43933</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43932</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43931</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43930</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43929</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43928</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43927</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43926</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43925</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43924</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43923</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43922</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43921</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43920</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43919</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43918</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>43917</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>43916</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>43915</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>43914</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>43913</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>43912</c:v>
                 </c:pt>
               </c:numCache>
@@ -1259,108 +1274,108 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$5:$D$41</c:f>
+              <c:f>Sheet1!$D$5:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="1">
+                  <c:v>237</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>233</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>231</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>225</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>221</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>215</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>213</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>204</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>198</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>192</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>186</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>177</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>173</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>163</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>159</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>152</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>146</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>141</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>125</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>110</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>107</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>87</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>63</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>35</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>15</c:v>
@@ -1369,6 +1384,9 @@
                   <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="36">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="37">
                   <c:v>15</c:v>
                 </c:pt>
               </c:numCache>
@@ -1408,188 +1426,191 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$5:$A$64</c:f>
+              <c:f>Sheet1!$A$5:$A$65</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43947</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43946</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43945</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43940</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43939</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43938</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43937</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43936</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43935</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43934</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43933</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43932</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43931</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43930</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43929</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43928</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43927</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43926</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43925</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43924</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43923</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43922</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43921</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43920</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43919</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43918</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>43917</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>43916</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>43915</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>43914</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>43913</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>43912</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>43911</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>43910</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>43909</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>43908</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>43907</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43906</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>43905</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>43904</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>43903</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>43902</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>43901</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>43900</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>43899</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>43898</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>43897</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>43896</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>43895</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>43894</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>43893</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>43892</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>43891</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>43890</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>43889</c:v>
                 </c:pt>
               </c:numCache>
@@ -1597,156 +1618,156 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$5:$E$64</c:f>
+              <c:f>Sheet1!$E$5:$E$65</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="1">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>56</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>58</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>62</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>68</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>82</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>88</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>91</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>98</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>110</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>112</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>117</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>121</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>123</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>121</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="21">
                   <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="22">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="23">
                   <c:v>134</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>145</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>147</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>135</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>136</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>130</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>108</c:v>
                 </c:pt>
                 <c:pt idx="32">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>99</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>103</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>96</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>93</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>89</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>57</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>47</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>41</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>34</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="46">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="47">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="50">
                   <c:v>5</c:v>
@@ -1755,16 +1776,16 @@
                   <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="52">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="53">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="54">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>0</c:v>
@@ -1776,6 +1797,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="59">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1791,11 +1815,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="204305872"/>
-        <c:axId val="204307552"/>
+        <c:axId val="376936304"/>
+        <c:axId val="376936864"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="204305872"/>
+        <c:axId val="376936304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="43889"/>
@@ -1853,13 +1877,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204307552"/>
+        <c:crossAx val="376936864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="204307552"/>
+        <c:axId val="376936864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1917,7 +1941,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="204305872"/>
+        <c:crossAx val="376936304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2121,188 +2145,191 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$5:$A$64</c:f>
+              <c:f>Sheet1!$A$5:$A$65</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43947</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43946</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43945</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43940</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43939</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43938</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43937</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43936</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43935</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43934</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43933</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43932</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43931</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43930</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43929</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43928</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43927</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43926</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43925</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43924</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43923</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43922</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43921</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43920</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43919</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43918</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>43917</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>43916</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>43915</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>43914</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>43913</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>43912</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>43911</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>43910</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>43909</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>43908</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>43907</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43906</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>43905</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>43904</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>43903</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>43902</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>43901</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>43900</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>43899</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>43898</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>43897</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>43896</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>43895</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>43894</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>43893</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>43892</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>43891</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>43890</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>43889</c:v>
                 </c:pt>
               </c:numCache>
@@ -2310,24 +2337,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$5:$F$64</c:f>
+              <c:f>Sheet1!$F$5:$F$65</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="1">
+                  <c:v>873</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>871</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>868</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>861</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>860</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>855</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>855</c:v>
@@ -2336,148 +2363,148 @@
                   <c:v>855</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>855</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>853</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>845</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>839</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>836</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>824</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>811</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>803</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>795</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>778</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>766</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>753</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>745</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>739</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>726</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>713</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>701</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>674</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>652</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>625</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>591</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>554</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>521</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>489</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>460</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>413</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>371</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>330</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>299</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>276</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>182</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>154</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>124</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>109</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="48">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="54">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>1</c:v>
@@ -2489,6 +2516,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -2528,188 +2558,191 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$5:$A$64</c:f>
+              <c:f>Sheet1!$A$5:$A$65</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43947</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43946</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43945</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43940</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43939</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43938</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43937</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43936</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43935</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43934</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43933</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43932</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43931</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43930</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43929</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43928</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43927</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43926</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43925</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43924</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43923</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43922</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43921</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43920</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43919</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43918</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>43917</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>43916</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>43915</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>43914</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>43913</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>43912</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>43911</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>43910</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>43909</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>43908</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>43907</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43906</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>43905</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>43904</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>43903</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>43902</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>43901</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>43900</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>43899</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>43898</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>43897</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>43896</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>43895</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>43894</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>43893</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>43892</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>43891</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>43890</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>43889</c:v>
                 </c:pt>
               </c:numCache>
@@ -2717,164 +2750,167 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$G$5:$G$64</c:f>
+              <c:f>Sheet1!$G$5:$G$65</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="1">
+                  <c:v>441</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>483</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>488</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>502</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>523</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>517</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>534</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>498</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>503</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>523</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>523</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>523</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>547</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>587</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>597</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>653</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>671</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>697</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>759</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>842</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>920</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>958</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>1066</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1308</c:v>
                 </c:pt>
                 <c:pt idx="23">
                   <c:v>1308</c:v>
                 </c:pt>
                 <c:pt idx="24">
+                  <c:v>1308</c:v>
+                </c:pt>
+                <c:pt idx="25">
                   <c:v>1278</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>1308</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>1316</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>1311</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>1368</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>1340</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>1358</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>1357</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>1274</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>1116</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>1041</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>905</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>952</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>840</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>716</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>628</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>539</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>524</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>450</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>360</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>406</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>338</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>325</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>248</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>144</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
@@ -2914,119 +2950,122 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$5:$A$41</c:f>
+              <c:f>Sheet1!$A$5:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43947</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43946</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43945</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43940</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43939</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43938</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43937</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43936</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43935</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43934</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43933</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43932</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43931</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43930</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43929</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43928</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43927</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43926</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43925</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43924</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43923</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43922</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43921</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43920</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43919</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43918</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>43917</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>43916</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>43915</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>43914</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>43913</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>43912</c:v>
                 </c:pt>
               </c:numCache>
@@ -3034,116 +3073,119 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$5:$H$41</c:f>
+              <c:f>Sheet1!$H$5:$H$42</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="1">
+                  <c:v>727</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>721</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>710</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>699</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>687</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>676</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>665</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>647</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>639</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>629</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>610</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>599</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>582</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>555</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>538</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>519</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>497</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>479</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>454</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>415</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>379</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>331</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>305</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>278</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>246</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>221</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>197</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>179</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>146</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>124</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>95</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="34">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="35">
                   <c:v>36</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>28</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
@@ -3183,188 +3225,191 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$5:$A$64</c:f>
+              <c:f>Sheet1!$A$5:$A$65</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43947</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43946</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43945</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43940</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43939</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43938</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43937</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43936</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43935</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43934</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43933</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43932</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43931</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43930</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43929</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43928</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43927</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43926</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43925</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43924</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43923</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43922</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43921</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43920</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43919</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43918</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>43917</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>43916</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>43915</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>43914</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>43913</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>43912</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>43911</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>43910</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>43909</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>43908</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>43907</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43906</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>43905</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>43904</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>43903</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>43902</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>43901</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>43900</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>43899</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>43898</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>43897</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>43896</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>43895</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>43894</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>43893</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>43892</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>43891</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>43890</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>43889</c:v>
                 </c:pt>
               </c:numCache>
@@ -3372,174 +3417,174 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$I$5:$I$64</c:f>
+              <c:f>Sheet1!$I$5:$I$65</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="1">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>158</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>162</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>173</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>179</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>190</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>208</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>214</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>216</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>229</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>237</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>242</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>256</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>265</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>276</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>281</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>287</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>299</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>330</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>360</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>395</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>408</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>423</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>428</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>431</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>428</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>412</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>408</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>397</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>394</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>381</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>352</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>310</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>294</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>271</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>248</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>238</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>182</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>154</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>124</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>109</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>60</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="48">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="49">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>9</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="53">
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="54">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="55">
                   <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>1</c:v>
@@ -3551,6 +3596,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -3566,11 +3614,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="376526208"/>
-        <c:axId val="376529008"/>
+        <c:axId val="377148848"/>
+        <c:axId val="377149408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="376526208"/>
+        <c:axId val="377148848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="43889"/>
@@ -3628,13 +3676,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376529008"/>
+        <c:crossAx val="377149408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="376529008"/>
+        <c:axId val="377149408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -3692,7 +3740,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="376526208"/>
+        <c:crossAx val="377148848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3882,188 +3930,191 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$5:$A$64</c:f>
+              <c:f>Sheet1!$A$5:$A$65</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43947</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43946</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43945</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43940</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43939</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43938</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43937</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43936</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43935</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43934</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43933</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43932</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43931</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43930</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43929</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43928</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43927</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43926</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43925</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43924</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43923</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43922</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43921</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43920</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43919</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43918</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>43917</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>43916</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>43915</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>43914</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>43913</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>43912</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>43911</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>43910</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>43909</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>43908</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>43907</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43906</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>43905</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>43904</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>43903</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>43902</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>43901</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>43900</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>43899</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>43898</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>43897</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>43896</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>43895</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>43894</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>43893</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>43892</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>43891</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>43890</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>43889</c:v>
                 </c:pt>
               </c:numCache>
@@ -4071,24 +4122,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$5:$J$64</c:f>
+              <c:f>Sheet1!$J$5:$J$65</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="1">
+                  <c:v>1162</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>1160</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1156</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>1144</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1143</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1136</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>1136</c:v>
@@ -4097,148 +4148,148 @@
                   <c:v>1136</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>1136</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>1133</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>1125</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>1116</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>1111</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>1097</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>1084</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>1074</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>1064</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>1045</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>1030</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>1010</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>999</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>985</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>969</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>947</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>933</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>900</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>865</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>820</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>777</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>725</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>676</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>632</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>593</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>535</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>489</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>441</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>417</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>390</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>248</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>171</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>111</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>73</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>1</c:v>
@@ -4250,6 +4301,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -4289,188 +4343,191 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$5:$A$64</c:f>
+              <c:f>Sheet1!$A$5:$A$65</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43947</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43946</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43945</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43940</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43939</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43938</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43937</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43936</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43935</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43934</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43933</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43932</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43931</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43930</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43929</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43928</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43927</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43926</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43925</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43924</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43923</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43922</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43921</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43920</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43919</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43918</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>43917</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>43916</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>43915</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>43914</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>43913</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>43912</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>43911</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>43910</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>43909</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>43908</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>43907</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43906</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>43905</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>43904</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>43903</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>43902</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>43901</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>43900</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>43899</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>43898</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>43897</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>43896</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>43895</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>43894</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>43893</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>43892</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>43891</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>43890</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>43889</c:v>
                 </c:pt>
               </c:numCache>
@@ -4478,164 +4535,167 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$K$5:$K$64</c:f>
+              <c:f>Sheet1!$K$5:$K$65</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="1">
+                  <c:v>626</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>675</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>673</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>689</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>703</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>684</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>703</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>645</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>649</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>674</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>673</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>717</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>774</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>807</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>885</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>941</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>1005</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>1067</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>1164</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>1260</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>1306</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>1422</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>1670</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>1682</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>1664</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>1701</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>1708</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>1709</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>1792</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>1744</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>1740</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>1714</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>1632</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>1452</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>1345</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>1211</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>1280</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>1104</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>934</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>815</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>691</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>688</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>614</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>504</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>527</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>421</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>403</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>314</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>209</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>44</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>39</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
@@ -4675,119 +4735,122 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$5:$A$41</c:f>
+              <c:f>Sheet1!$A$5:$A$42</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="0">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43947</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43946</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43945</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43940</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43939</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43938</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43937</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43936</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43935</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43934</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43933</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43932</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43931</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43930</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43929</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43928</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43927</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43926</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43925</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43924</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43923</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43922</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43921</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43920</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43919</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43918</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>43917</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>43916</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>43915</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>43914</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>43913</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>43912</c:v>
                 </c:pt>
               </c:numCache>
@@ -4795,116 +4858,119 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$L$5:$L$41</c:f>
+              <c:f>Sheet1!$L$5:$L$42</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="37"/>
+                <c:ptCount val="38"/>
                 <c:pt idx="1">
+                  <c:v>964</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>954</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>941</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>924</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>908</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>891</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>878</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>851</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>837</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>821</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>796</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>776</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>755</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>718</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>697</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>671</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>643</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>620</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>590</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>540</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>489</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>438</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>405</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>365</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>325</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>284</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>257</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>229</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>187</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>163</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>130</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>104</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>84</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>76</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>51</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>43</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
@@ -4944,188 +5010,191 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$5:$A$64</c:f>
+              <c:f>Sheet1!$A$5:$A$65</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="0">
+                  <c:v>43949</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>43948</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>43947</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>43946</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>43945</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>43944</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>43943</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>43942</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>43941</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>43940</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>43939</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>43938</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>43937</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>43936</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>43935</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>43934</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>43933</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>43932</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>43931</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>43930</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>43929</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>43928</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>43927</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>43926</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>43925</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>43924</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>43923</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>43922</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>43921</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>43920</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>43919</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>43918</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>43917</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>43916</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>43915</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>43914</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>43913</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>43912</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>43911</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>43910</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>43909</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>43908</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>43907</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>43906</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>43905</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>43904</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>43903</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>43902</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>43901</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>43900</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>43899</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>43898</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>43897</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>43896</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>43895</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>43894</c:v>
                 </c:pt>
-                <c:pt idx="55">
+                <c:pt idx="56">
                   <c:v>43893</c:v>
                 </c:pt>
-                <c:pt idx="56">
+                <c:pt idx="57">
                   <c:v>43892</c:v>
                 </c:pt>
-                <c:pt idx="57">
+                <c:pt idx="58">
                   <c:v>43891</c:v>
                 </c:pt>
-                <c:pt idx="58">
+                <c:pt idx="59">
                   <c:v>43890</c:v>
                 </c:pt>
-                <c:pt idx="59">
+                <c:pt idx="60">
                   <c:v>43889</c:v>
                 </c:pt>
               </c:numCache>
@@ -5133,174 +5202,174 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$M$5:$M$64</c:f>
+              <c:f>Sheet1!$M$5:$M$65</c:f>
               <c:numCache>
                 <c:formatCode>0_);[Red]\(0\)</c:formatCode>
-                <c:ptCount val="60"/>
+                <c:ptCount val="61"/>
                 <c:pt idx="1">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>206</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>215</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>220</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>235</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>245</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>258</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>285</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>296</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>304</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>320</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>335</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>342</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>366</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>377</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>393</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>402</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>410</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>420</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>459</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>496</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>531</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>542</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="24">
                   <c:v>568</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="25">
                   <c:v>575</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="26">
                   <c:v>581</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="27">
                   <c:v>563</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="28">
                   <c:v>548</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="29">
                   <c:v>538</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="30">
                   <c:v>513</c:v>
                 </c:pt>
-                <c:pt idx="30">
+                <c:pt idx="31">
                   <c:v>502</c:v>
                 </c:pt>
-                <c:pt idx="31">
+                <c:pt idx="32">
                   <c:v>489</c:v>
                 </c:pt>
-                <c:pt idx="32">
+                <c:pt idx="33">
                   <c:v>451</c:v>
                 </c:pt>
-                <c:pt idx="33">
+                <c:pt idx="34">
                   <c:v>413</c:v>
                 </c:pt>
-                <c:pt idx="34">
+                <c:pt idx="35">
                   <c:v>390</c:v>
                 </c:pt>
-                <c:pt idx="35">
+                <c:pt idx="36">
                   <c:v>364</c:v>
                 </c:pt>
-                <c:pt idx="36">
+                <c:pt idx="37">
                   <c:v>337</c:v>
                 </c:pt>
-                <c:pt idx="37">
+                <c:pt idx="38">
                   <c:v>318</c:v>
                 </c:pt>
-                <c:pt idx="38">
+                <c:pt idx="39">
                   <c:v>248</c:v>
                 </c:pt>
-                <c:pt idx="39">
+                <c:pt idx="40">
                   <c:v>211</c:v>
                 </c:pt>
-                <c:pt idx="40">
+                <c:pt idx="41">
                   <c:v>171</c:v>
                 </c:pt>
-                <c:pt idx="41">
+                <c:pt idx="42">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="42">
+                <c:pt idx="43">
                   <c:v>111</c:v>
                 </c:pt>
-                <c:pt idx="43">
+                <c:pt idx="44">
                   <c:v>90</c:v>
                 </c:pt>
-                <c:pt idx="44">
+                <c:pt idx="45">
                   <c:v>73</c:v>
                 </c:pt>
-                <c:pt idx="45">
+                <c:pt idx="46">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="46">
+                <c:pt idx="47">
                   <c:v>32</c:v>
                 </c:pt>
-                <c:pt idx="47">
+                <c:pt idx="48">
                   <c:v>31</c:v>
                 </c:pt>
-                <c:pt idx="48">
+                <c:pt idx="49">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="49">
+                <c:pt idx="50">
                   <c:v>18</c:v>
                 </c:pt>
-                <c:pt idx="50">
+                <c:pt idx="51">
                   <c:v>14</c:v>
                 </c:pt>
-                <c:pt idx="51">
+                <c:pt idx="52">
                   <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="52">
+                <c:pt idx="53">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="53">
+                <c:pt idx="54">
                   <c:v>5</c:v>
                 </c:pt>
-                <c:pt idx="54">
+                <c:pt idx="55">
                   <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="56">
                   <c:v>1</c:v>
@@ -5312,6 +5381,9 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="59">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="60">
                   <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
@@ -5327,11 +5399,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="382014592"/>
-        <c:axId val="432383072"/>
+        <c:axId val="377153888"/>
+        <c:axId val="377154448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="382014592"/>
+        <c:axId val="377153888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="43889"/>
@@ -5389,13 +5461,13 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="432383072"/>
+        <c:crossAx val="377154448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="10"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="432383072"/>
+        <c:axId val="377154448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -5453,7 +5525,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382014592"/>
+        <c:crossAx val="377153888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7214,7 +7286,7 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>25</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7238,13 +7310,13 @@
     <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>242887</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
       <xdr:colOff>14287</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7268,13 +7340,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>104776</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -7584,10 +7656,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M91"/>
+  <dimension ref="A1:M92"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="Q75" sqref="Q75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7698,7 +7770,7 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
-        <v>43948</v>
+        <v>43949</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -7714,1569 +7786,1572 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="B6" s="6">
         <v>289</v>
       </c>
       <c r="C6" s="6">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="D6" s="7">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E6" s="10">
-        <f t="shared" ref="E6" si="0">B6-D6</f>
-        <v>56</v>
+        <f t="shared" ref="E6:E7" si="0">B6-D6</f>
+        <v>52</v>
       </c>
       <c r="F6" s="6">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="G6" s="6">
-        <v>483</v>
+        <v>441</v>
       </c>
       <c r="H6" s="7">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="I6" s="10">
         <f t="shared" ref="I6" si="1">F6-H6</f>
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J6" s="6">
         <f t="shared" ref="J6" si="2">B6+F6</f>
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="K6" s="6">
         <f t="shared" ref="K6" si="3">C6+G6</f>
-        <v>675</v>
+        <v>626</v>
       </c>
       <c r="L6" s="12">
         <f t="shared" ref="L6" si="4">D6+H6</f>
-        <v>954</v>
+        <v>964</v>
       </c>
       <c r="M6" s="10">
         <f t="shared" ref="M6" si="5">E6+I6</f>
-        <v>206</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
-        <v>43946</v>
+        <v>43947</v>
       </c>
       <c r="B7" s="6">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C7" s="6">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="D7" s="7">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E7" s="10">
-        <f t="shared" ref="E5:E17" si="6">B7-D7</f>
-        <v>57</v>
+        <f t="shared" si="0"/>
+        <v>56</v>
       </c>
       <c r="F7" s="6">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="G7" s="6">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="H7" s="7">
-        <v>710</v>
+        <v>721</v>
       </c>
       <c r="I7" s="10">
-        <f t="shared" ref="I7" si="7">F7-H7</f>
-        <v>158</v>
+        <f t="shared" ref="I7" si="6">F7-H7</f>
+        <v>150</v>
       </c>
       <c r="J7" s="6">
-        <f t="shared" ref="J7" si="8">B7+F7</f>
-        <v>1156</v>
+        <f t="shared" ref="J7" si="7">B7+F7</f>
+        <v>1160</v>
       </c>
       <c r="K7" s="6">
-        <f t="shared" ref="K7" si="9">C7+G7</f>
-        <v>673</v>
+        <f t="shared" ref="K7" si="8">C7+G7</f>
+        <v>675</v>
       </c>
       <c r="L7" s="12">
-        <f t="shared" ref="L7" si="10">D7+H7</f>
-        <v>941</v>
+        <f t="shared" ref="L7" si="9">D7+H7</f>
+        <v>954</v>
       </c>
       <c r="M7" s="10">
-        <f t="shared" ref="M7" si="11">E7+I7</f>
-        <v>215</v>
+        <f t="shared" ref="M7" si="10">E7+I7</f>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
-        <v>43945</v>
+        <v>43946</v>
       </c>
       <c r="B8" s="6">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="C8" s="6">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D8" s="7">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="E8" s="10">
-        <f t="shared" si="6"/>
-        <v>58</v>
+        <f t="shared" ref="E8:E18" si="11">B8-D8</f>
+        <v>57</v>
       </c>
       <c r="F8" s="6">
-        <v>861</v>
+        <v>868</v>
       </c>
       <c r="G8" s="6">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="H8" s="7">
-        <v>699</v>
+        <v>710</v>
       </c>
       <c r="I8" s="10">
         <f t="shared" ref="I8" si="12">F8-H8</f>
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J8" s="6">
         <f t="shared" ref="J8" si="13">B8+F8</f>
-        <v>1144</v>
+        <v>1156</v>
       </c>
       <c r="K8" s="6">
         <f t="shared" ref="K8" si="14">C8+G8</f>
-        <v>689</v>
+        <v>673</v>
       </c>
       <c r="L8" s="12">
         <f t="shared" ref="L8" si="15">D8+H8</f>
-        <v>924</v>
+        <v>941</v>
       </c>
       <c r="M8" s="10">
         <f t="shared" ref="M8" si="16">E8+I8</f>
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
-        <v>43944</v>
+        <v>43945</v>
       </c>
       <c r="B9" s="6">
         <v>283</v>
       </c>
       <c r="C9" s="6">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="D9" s="7">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="E9" s="10">
-        <f t="shared" si="6"/>
-        <v>62</v>
+        <f t="shared" si="11"/>
+        <v>58</v>
       </c>
       <c r="F9" s="6">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="G9" s="6">
-        <v>523</v>
+        <v>502</v>
       </c>
       <c r="H9" s="7">
-        <v>687</v>
+        <v>699</v>
       </c>
       <c r="I9" s="10">
         <f t="shared" ref="I9" si="17">F9-H9</f>
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="J9" s="6">
         <f t="shared" ref="J9" si="18">B9+F9</f>
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="K9" s="6">
         <f t="shared" ref="K9" si="19">C9+G9</f>
-        <v>703</v>
+        <v>689</v>
       </c>
       <c r="L9" s="12">
         <f t="shared" ref="L9" si="20">D9+H9</f>
-        <v>908</v>
+        <v>924</v>
       </c>
       <c r="M9" s="10">
         <f t="shared" ref="M9" si="21">E9+I9</f>
-        <v>235</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
-        <v>43943</v>
+        <v>43944</v>
       </c>
       <c r="B10" s="6">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C10" s="6">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="D10" s="7">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="E10" s="10">
-        <f t="shared" si="6"/>
-        <v>66</v>
+        <f t="shared" si="11"/>
+        <v>62</v>
       </c>
       <c r="F10" s="6">
-        <v>855</v>
+        <v>860</v>
       </c>
       <c r="G10" s="6">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="H10" s="7">
-        <v>676</v>
+        <v>687</v>
       </c>
       <c r="I10" s="10">
-        <f t="shared" ref="I10:I17" si="22">F10-H10</f>
-        <v>179</v>
+        <f t="shared" ref="I10" si="22">F10-H10</f>
+        <v>173</v>
       </c>
       <c r="J10" s="6">
         <f t="shared" ref="J10" si="23">B10+F10</f>
-        <v>1136</v>
+        <v>1143</v>
       </c>
       <c r="K10" s="6">
         <f t="shared" ref="K10" si="24">C10+G10</f>
-        <v>684</v>
+        <v>703</v>
       </c>
       <c r="L10" s="12">
         <f t="shared" ref="L10" si="25">D10+H10</f>
-        <v>891</v>
+        <v>908</v>
       </c>
       <c r="M10" s="10">
         <f t="shared" ref="M10" si="26">E10+I10</f>
-        <v>245</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
-        <v>43942</v>
+        <v>43943</v>
       </c>
       <c r="B11" s="6">
         <v>281</v>
       </c>
       <c r="C11" s="6">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D11" s="7">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E11" s="10">
-        <f t="shared" si="6"/>
-        <v>68</v>
+        <f t="shared" si="11"/>
+        <v>66</v>
       </c>
       <c r="F11" s="6">
         <v>855</v>
       </c>
       <c r="G11" s="6">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="H11" s="7">
-        <v>665</v>
+        <v>676</v>
       </c>
       <c r="I11" s="10">
-        <f t="shared" si="22"/>
-        <v>190</v>
+        <f t="shared" ref="I11:I18" si="27">F11-H11</f>
+        <v>179</v>
       </c>
       <c r="J11" s="6">
-        <f t="shared" ref="J11:J26" si="27">B11+F11</f>
+        <f t="shared" ref="J11" si="28">B11+F11</f>
         <v>1136</v>
       </c>
       <c r="K11" s="6">
-        <f t="shared" ref="K11:K26" si="28">C11+G11</f>
-        <v>703</v>
+        <f t="shared" ref="K11" si="29">C11+G11</f>
+        <v>684</v>
       </c>
       <c r="L11" s="12">
-        <f t="shared" ref="L11:L19" si="29">D11+H11</f>
-        <v>878</v>
+        <f t="shared" ref="L11" si="30">D11+H11</f>
+        <v>891</v>
       </c>
       <c r="M11" s="10">
-        <f t="shared" ref="M11:M17" si="30">E11+I11</f>
-        <v>258</v>
+        <f t="shared" ref="M11" si="31">E11+I11</f>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
-        <v>43941</v>
+        <v>43942</v>
       </c>
       <c r="B12" s="6">
         <v>281</v>
       </c>
       <c r="C12" s="6">
-        <v>147</v>
+        <v>169</v>
       </c>
       <c r="D12" s="7">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="E12" s="10">
-        <f t="shared" si="6"/>
-        <v>77</v>
+        <f t="shared" si="11"/>
+        <v>68</v>
       </c>
       <c r="F12" s="6">
         <v>855</v>
       </c>
       <c r="G12" s="6">
-        <v>498</v>
+        <v>534</v>
       </c>
       <c r="H12" s="7">
-        <v>647</v>
+        <v>665</v>
       </c>
       <c r="I12" s="10">
-        <f t="shared" si="22"/>
-        <v>208</v>
+        <f t="shared" si="27"/>
+        <v>190</v>
       </c>
       <c r="J12" s="6">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="J12:J27" si="32">B12+F12</f>
         <v>1136</v>
       </c>
       <c r="K12" s="6">
-        <f t="shared" si="28"/>
-        <v>645</v>
+        <f t="shared" ref="K12:K27" si="33">C12+G12</f>
+        <v>703</v>
       </c>
       <c r="L12" s="12">
-        <f t="shared" si="29"/>
-        <v>851</v>
+        <f t="shared" ref="L12:L20" si="34">D12+H12</f>
+        <v>878</v>
       </c>
       <c r="M12" s="10">
-        <f t="shared" si="30"/>
-        <v>285</v>
+        <f t="shared" ref="M12:M18" si="35">E12+I12</f>
+        <v>258</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
-        <v>43940</v>
+        <v>43941</v>
       </c>
       <c r="B13" s="6">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C13" s="6">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D13" s="7">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="E13" s="10">
-        <f t="shared" si="6"/>
-        <v>82</v>
+        <f t="shared" si="11"/>
+        <v>77</v>
       </c>
       <c r="F13" s="6">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="G13" s="6">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="H13" s="7">
-        <v>639</v>
+        <v>647</v>
       </c>
       <c r="I13" s="10">
-        <f t="shared" si="22"/>
-        <v>214</v>
+        <f t="shared" si="27"/>
+        <v>208</v>
       </c>
       <c r="J13" s="6">
-        <f t="shared" si="27"/>
-        <v>1133</v>
+        <f t="shared" si="32"/>
+        <v>1136</v>
       </c>
       <c r="K13" s="6">
-        <f t="shared" si="28"/>
-        <v>649</v>
+        <f t="shared" si="33"/>
+        <v>645</v>
       </c>
       <c r="L13" s="12">
-        <f t="shared" si="29"/>
-        <v>837</v>
+        <f t="shared" si="34"/>
+        <v>851</v>
       </c>
       <c r="M13" s="10">
-        <f t="shared" si="30"/>
-        <v>296</v>
+        <f t="shared" si="35"/>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
-        <v>43939</v>
+        <v>43940</v>
       </c>
       <c r="B14" s="6">
         <v>280</v>
       </c>
       <c r="C14" s="6">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D14" s="7">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="E14" s="10">
-        <f t="shared" si="6"/>
-        <v>88</v>
+        <f t="shared" si="11"/>
+        <v>82</v>
       </c>
       <c r="F14" s="6">
-        <v>845</v>
+        <v>853</v>
       </c>
       <c r="G14" s="6">
-        <v>523</v>
+        <v>503</v>
       </c>
       <c r="H14" s="7">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="I14" s="10">
-        <f t="shared" si="22"/>
-        <v>216</v>
+        <f t="shared" si="27"/>
+        <v>214</v>
       </c>
       <c r="J14" s="6">
-        <f t="shared" si="27"/>
-        <v>1125</v>
+        <f t="shared" si="32"/>
+        <v>1133</v>
       </c>
       <c r="K14" s="6">
-        <f t="shared" si="28"/>
-        <v>674</v>
+        <f t="shared" si="33"/>
+        <v>649</v>
       </c>
       <c r="L14" s="12">
-        <f t="shared" si="29"/>
-        <v>821</v>
+        <f t="shared" si="34"/>
+        <v>837</v>
       </c>
       <c r="M14" s="10">
-        <f t="shared" si="30"/>
-        <v>304</v>
+        <f t="shared" si="35"/>
+        <v>296</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
-        <v>43938</v>
+        <v>43939</v>
       </c>
       <c r="B15" s="6">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C15" s="6">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D15" s="7">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="E15" s="10">
-        <f t="shared" si="6"/>
-        <v>91</v>
+        <f t="shared" si="11"/>
+        <v>88</v>
       </c>
       <c r="F15" s="6">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="G15" s="6">
         <v>523</v>
       </c>
       <c r="H15" s="7">
-        <v>610</v>
+        <v>629</v>
       </c>
       <c r="I15" s="10">
-        <f t="shared" si="22"/>
-        <v>229</v>
+        <f t="shared" si="27"/>
+        <v>216</v>
       </c>
       <c r="J15" s="6">
-        <f t="shared" si="27"/>
-        <v>1116</v>
+        <f t="shared" si="32"/>
+        <v>1125</v>
       </c>
       <c r="K15" s="6">
-        <f t="shared" si="28"/>
-        <v>673</v>
+        <f t="shared" si="33"/>
+        <v>674</v>
       </c>
       <c r="L15" s="12">
-        <f t="shared" si="29"/>
-        <v>796</v>
+        <f t="shared" si="34"/>
+        <v>821</v>
       </c>
       <c r="M15" s="10">
-        <f t="shared" si="30"/>
-        <v>320</v>
+        <f t="shared" si="35"/>
+        <v>304</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
-        <v>43937</v>
+        <v>43938</v>
       </c>
       <c r="B16" s="6">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C16" s="6">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="D16" s="7">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="E16" s="10">
-        <f t="shared" si="6"/>
-        <v>98</v>
+        <f t="shared" si="11"/>
+        <v>91</v>
       </c>
       <c r="F16" s="6">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="G16" s="6">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="H16" s="7">
-        <v>599</v>
+        <v>610</v>
       </c>
       <c r="I16" s="10">
-        <f t="shared" si="22"/>
-        <v>237</v>
+        <f t="shared" si="27"/>
+        <v>229</v>
       </c>
       <c r="J16" s="6">
-        <f t="shared" si="27"/>
-        <v>1111</v>
+        <f t="shared" si="32"/>
+        <v>1116</v>
       </c>
       <c r="K16" s="6">
-        <f t="shared" si="28"/>
-        <v>717</v>
+        <f t="shared" si="33"/>
+        <v>673</v>
       </c>
       <c r="L16" s="12">
-        <f t="shared" si="29"/>
-        <v>776</v>
+        <f t="shared" si="34"/>
+        <v>796</v>
       </c>
       <c r="M16" s="10">
-        <f t="shared" si="30"/>
-        <v>335</v>
+        <f t="shared" si="35"/>
+        <v>320</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
-        <v>43936</v>
+        <v>43937</v>
       </c>
       <c r="B17" s="6">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C17" s="6">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="D17" s="7">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E17" s="10">
-        <f t="shared" si="6"/>
-        <v>100</v>
+        <f t="shared" si="11"/>
+        <v>98</v>
       </c>
       <c r="F17" s="6">
-        <v>824</v>
+        <v>836</v>
       </c>
       <c r="G17" s="6">
-        <v>587</v>
+        <v>547</v>
       </c>
       <c r="H17" s="7">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="I17" s="10">
-        <f t="shared" si="22"/>
-        <v>242</v>
+        <f t="shared" si="27"/>
+        <v>237</v>
       </c>
       <c r="J17" s="6">
-        <f t="shared" si="27"/>
-        <v>1097</v>
+        <f t="shared" si="32"/>
+        <v>1111</v>
       </c>
       <c r="K17" s="6">
-        <f t="shared" si="28"/>
-        <v>774</v>
+        <f t="shared" si="33"/>
+        <v>717</v>
       </c>
       <c r="L17" s="12">
-        <f t="shared" si="29"/>
-        <v>755</v>
+        <f t="shared" si="34"/>
+        <v>776</v>
       </c>
       <c r="M17" s="10">
-        <f t="shared" si="30"/>
-        <v>342</v>
+        <f t="shared" si="35"/>
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
-        <v>43935</v>
+        <v>43936</v>
       </c>
       <c r="B18" s="6">
         <v>273</v>
       </c>
       <c r="C18" s="6">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="D18" s="7">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="E18" s="10">
-        <f t="shared" ref="E18:E64" si="31">B18-D18</f>
-        <v>110</v>
+        <f t="shared" si="11"/>
+        <v>100</v>
       </c>
       <c r="F18" s="6">
-        <v>811</v>
+        <v>824</v>
       </c>
       <c r="G18" s="6">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="H18" s="7">
-        <v>555</v>
+        <v>582</v>
       </c>
       <c r="I18" s="10">
-        <f t="shared" ref="I18:I64" si="32">F18-H18</f>
-        <v>256</v>
+        <f t="shared" si="27"/>
+        <v>242</v>
       </c>
       <c r="J18" s="6">
-        <f t="shared" si="27"/>
-        <v>1084</v>
+        <f t="shared" si="32"/>
+        <v>1097</v>
       </c>
       <c r="K18" s="6">
-        <f t="shared" si="28"/>
-        <v>807</v>
+        <f t="shared" si="33"/>
+        <v>774</v>
       </c>
       <c r="L18" s="12">
-        <f t="shared" si="29"/>
-        <v>718</v>
+        <f t="shared" si="34"/>
+        <v>755</v>
       </c>
       <c r="M18" s="10">
-        <f t="shared" ref="M18:M64" si="33">E18+I18</f>
-        <v>366</v>
+        <f t="shared" si="35"/>
+        <v>342</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
-        <v>43934</v>
+        <v>43935</v>
       </c>
       <c r="B19" s="6">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C19" s="6">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="D19" s="7">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E19" s="10">
-        <f t="shared" si="31"/>
-        <v>112</v>
+        <f t="shared" ref="E19:E65" si="36">B19-D19</f>
+        <v>110</v>
       </c>
       <c r="F19" s="6">
-        <v>803</v>
+        <v>811</v>
       </c>
       <c r="G19" s="6">
-        <v>653</v>
+        <v>597</v>
       </c>
       <c r="H19" s="7">
-        <v>538</v>
+        <v>555</v>
       </c>
       <c r="I19" s="10">
+        <f t="shared" ref="I19:I65" si="37">F19-H19</f>
+        <v>256</v>
+      </c>
+      <c r="J19" s="6">
         <f t="shared" si="32"/>
-        <v>265</v>
-      </c>
-      <c r="J19" s="6">
-        <f t="shared" si="27"/>
-        <v>1074</v>
+        <v>1084</v>
       </c>
       <c r="K19" s="6">
-        <f t="shared" si="28"/>
-        <v>885</v>
+        <f t="shared" si="33"/>
+        <v>807</v>
       </c>
       <c r="L19" s="12">
-        <f t="shared" si="29"/>
-        <v>697</v>
+        <f t="shared" si="34"/>
+        <v>718</v>
       </c>
       <c r="M19" s="10">
-        <f t="shared" si="33"/>
-        <v>377</v>
+        <f t="shared" ref="M19:M65" si="38">E19+I19</f>
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
-        <v>43933</v>
+        <v>43934</v>
       </c>
       <c r="B20" s="6">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C20" s="6">
-        <v>270</v>
+        <v>232</v>
       </c>
       <c r="D20" s="7">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="E20" s="10">
-        <f t="shared" si="31"/>
-        <v>117</v>
+        <f t="shared" si="36"/>
+        <v>112</v>
       </c>
       <c r="F20" s="6">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="G20" s="6">
-        <v>671</v>
+        <v>653</v>
       </c>
       <c r="H20" s="7">
-        <v>519</v>
+        <v>538</v>
       </c>
       <c r="I20" s="10">
+        <f t="shared" si="37"/>
+        <v>265</v>
+      </c>
+      <c r="J20" s="6">
         <f t="shared" si="32"/>
-        <v>276</v>
-      </c>
-      <c r="J20" s="6">
-        <f t="shared" si="27"/>
-        <v>1064</v>
+        <v>1074</v>
       </c>
       <c r="K20" s="6">
-        <f t="shared" si="28"/>
-        <v>941</v>
+        <f t="shared" si="33"/>
+        <v>885</v>
       </c>
       <c r="L20" s="12">
-        <f t="shared" ref="L20" si="34">D20+H20</f>
-        <v>671</v>
+        <f t="shared" si="34"/>
+        <v>697</v>
       </c>
       <c r="M20" s="10">
-        <f t="shared" si="33"/>
-        <v>393</v>
+        <f t="shared" si="38"/>
+        <v>377</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
-        <v>43932</v>
+        <v>43933</v>
       </c>
       <c r="B21" s="6">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C21" s="6">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="D21" s="7">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E21" s="10">
-        <f t="shared" si="31"/>
-        <v>121</v>
+        <f t="shared" si="36"/>
+        <v>117</v>
       </c>
       <c r="F21" s="6">
-        <v>778</v>
+        <v>795</v>
       </c>
       <c r="G21" s="6">
-        <v>697</v>
+        <v>671</v>
       </c>
       <c r="H21" s="7">
-        <v>497</v>
+        <v>519</v>
       </c>
       <c r="I21" s="10">
+        <f t="shared" si="37"/>
+        <v>276</v>
+      </c>
+      <c r="J21" s="6">
         <f t="shared" si="32"/>
-        <v>281</v>
-      </c>
-      <c r="J21" s="6">
-        <f t="shared" si="27"/>
-        <v>1045</v>
+        <v>1064</v>
       </c>
       <c r="K21" s="6">
-        <f t="shared" si="28"/>
-        <v>1005</v>
+        <f t="shared" si="33"/>
+        <v>941</v>
       </c>
       <c r="L21" s="12">
-        <f t="shared" ref="L21:L26" si="35">D21+H21</f>
-        <v>643</v>
+        <f t="shared" ref="L21" si="39">D21+H21</f>
+        <v>671</v>
       </c>
       <c r="M21" s="10">
-        <f t="shared" si="33"/>
-        <v>402</v>
+        <f t="shared" si="38"/>
+        <v>393</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
-        <v>43931</v>
+        <v>43932</v>
       </c>
       <c r="B22" s="6">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C22" s="6">
         <v>308</v>
       </c>
       <c r="D22" s="7">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E22" s="10">
-        <f t="shared" si="31"/>
-        <v>123</v>
+        <f t="shared" si="36"/>
+        <v>121</v>
       </c>
       <c r="F22" s="6">
-        <v>766</v>
+        <v>778</v>
       </c>
       <c r="G22" s="6">
-        <v>759</v>
+        <v>697</v>
       </c>
       <c r="H22" s="7">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="I22" s="10">
+        <f t="shared" si="37"/>
+        <v>281</v>
+      </c>
+      <c r="J22" s="6">
         <f t="shared" si="32"/>
-        <v>287</v>
-      </c>
-      <c r="J22" s="6">
-        <f t="shared" si="27"/>
-        <v>1030</v>
+        <v>1045</v>
       </c>
       <c r="K22" s="6">
-        <f t="shared" si="28"/>
-        <v>1067</v>
+        <f t="shared" si="33"/>
+        <v>1005</v>
       </c>
       <c r="L22" s="12">
-        <f t="shared" si="35"/>
-        <v>620</v>
+        <f t="shared" ref="L22:L27" si="40">D22+H22</f>
+        <v>643</v>
       </c>
       <c r="M22" s="10">
-        <f t="shared" si="33"/>
-        <v>410</v>
+        <f t="shared" si="38"/>
+        <v>402</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
-        <v>43930</v>
+        <v>43931</v>
       </c>
       <c r="B23" s="6">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="C23" s="6">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="D23" s="7">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="E23" s="10">
-        <f t="shared" si="31"/>
-        <v>121</v>
+        <f t="shared" si="36"/>
+        <v>123</v>
       </c>
       <c r="F23" s="6">
-        <v>753</v>
+        <v>766</v>
       </c>
       <c r="G23" s="6">
-        <v>842</v>
+        <v>759</v>
       </c>
       <c r="H23" s="7">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="I23" s="10">
+        <f t="shared" si="37"/>
+        <v>287</v>
+      </c>
+      <c r="J23" s="6">
         <f t="shared" si="32"/>
-        <v>299</v>
-      </c>
-      <c r="J23" s="6">
-        <f t="shared" si="27"/>
-        <v>1010</v>
+        <v>1030</v>
       </c>
       <c r="K23" s="6">
-        <f t="shared" si="28"/>
-        <v>1164</v>
+        <f t="shared" si="33"/>
+        <v>1067</v>
       </c>
       <c r="L23" s="12">
-        <f t="shared" si="35"/>
-        <v>590</v>
+        <f t="shared" si="40"/>
+        <v>620</v>
       </c>
       <c r="M23" s="10">
-        <f t="shared" si="33"/>
-        <v>420</v>
+        <f t="shared" si="38"/>
+        <v>410</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
-        <v>43929</v>
+        <v>43930</v>
       </c>
       <c r="B24" s="6">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C24" s="6">
-        <v>340</v>
+        <v>322</v>
       </c>
       <c r="D24" s="7">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="E24" s="10">
-        <f t="shared" si="31"/>
-        <v>129</v>
+        <f t="shared" si="36"/>
+        <v>121</v>
       </c>
       <c r="F24" s="6">
-        <v>745</v>
+        <v>753</v>
       </c>
       <c r="G24" s="6">
-        <v>920</v>
+        <v>842</v>
       </c>
       <c r="H24" s="7">
-        <v>415</v>
+        <v>454</v>
       </c>
       <c r="I24" s="10">
+        <f t="shared" si="37"/>
+        <v>299</v>
+      </c>
+      <c r="J24" s="6">
         <f t="shared" si="32"/>
-        <v>330</v>
-      </c>
-      <c r="J24" s="6">
-        <f t="shared" si="27"/>
-        <v>999</v>
+        <v>1010</v>
       </c>
       <c r="K24" s="6">
-        <f t="shared" si="28"/>
-        <v>1260</v>
+        <f t="shared" si="33"/>
+        <v>1164</v>
       </c>
       <c r="L24" s="12">
-        <f t="shared" si="35"/>
-        <v>540</v>
+        <f t="shared" si="40"/>
+        <v>590</v>
       </c>
       <c r="M24" s="10">
-        <f t="shared" si="33"/>
-        <v>459</v>
+        <f t="shared" si="38"/>
+        <v>420</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
-        <v>43928</v>
+        <v>43929</v>
       </c>
       <c r="B25" s="6">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="C25" s="6">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="D25" s="7">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="E25" s="10">
-        <f t="shared" si="31"/>
-        <v>136</v>
+        <f t="shared" si="36"/>
+        <v>129</v>
       </c>
       <c r="F25" s="6">
-        <v>739</v>
+        <v>745</v>
       </c>
       <c r="G25" s="6">
-        <v>958</v>
+        <v>920</v>
       </c>
       <c r="H25" s="7">
-        <v>379</v>
+        <v>415</v>
       </c>
       <c r="I25" s="10">
+        <f t="shared" si="37"/>
+        <v>330</v>
+      </c>
+      <c r="J25" s="6">
         <f t="shared" si="32"/>
-        <v>360</v>
-      </c>
-      <c r="J25" s="6">
-        <f t="shared" si="27"/>
-        <v>985</v>
+        <v>999</v>
       </c>
       <c r="K25" s="6">
-        <f t="shared" si="28"/>
-        <v>1306</v>
+        <f t="shared" si="33"/>
+        <v>1260</v>
       </c>
       <c r="L25" s="12">
-        <f t="shared" si="35"/>
-        <v>489</v>
+        <f t="shared" si="40"/>
+        <v>540</v>
       </c>
       <c r="M25" s="10">
-        <f t="shared" si="33"/>
-        <v>496</v>
+        <f t="shared" si="38"/>
+        <v>459</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
-        <v>43927</v>
+        <v>43928</v>
       </c>
       <c r="B26" s="6">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C26" s="6">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D26" s="7">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="E26" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>136</v>
       </c>
       <c r="F26" s="6">
-        <v>726</v>
+        <v>739</v>
       </c>
       <c r="G26" s="6">
-        <v>1066</v>
+        <v>958</v>
       </c>
       <c r="H26" s="7">
-        <v>331</v>
+        <v>379</v>
       </c>
       <c r="I26" s="10">
+        <f t="shared" si="37"/>
+        <v>360</v>
+      </c>
+      <c r="J26" s="6">
         <f t="shared" si="32"/>
-        <v>395</v>
-      </c>
-      <c r="J26" s="6">
-        <f t="shared" si="27"/>
-        <v>969</v>
+        <v>985</v>
       </c>
       <c r="K26" s="6">
-        <f t="shared" si="28"/>
-        <v>1422</v>
+        <f t="shared" si="33"/>
+        <v>1306</v>
       </c>
       <c r="L26" s="12">
-        <f t="shared" si="35"/>
-        <v>438</v>
+        <f t="shared" si="40"/>
+        <v>489</v>
       </c>
       <c r="M26" s="10">
-        <f t="shared" si="33"/>
-        <v>531</v>
+        <f t="shared" si="38"/>
+        <v>496</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
-        <v>43926</v>
+        <v>43927</v>
       </c>
       <c r="B27" s="6">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="C27" s="6">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="D27" s="7">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="E27" s="10">
-        <f t="shared" si="31"/>
-        <v>134</v>
+        <f t="shared" si="36"/>
+        <v>136</v>
       </c>
       <c r="F27" s="6">
-        <v>713</v>
+        <v>726</v>
       </c>
       <c r="G27" s="6">
-        <v>1308</v>
+        <v>1066</v>
       </c>
       <c r="H27" s="7">
-        <v>305</v>
+        <v>331</v>
       </c>
       <c r="I27" s="10">
+        <f t="shared" si="37"/>
+        <v>395</v>
+      </c>
+      <c r="J27" s="6">
         <f t="shared" si="32"/>
-        <v>408</v>
-      </c>
-      <c r="J27" s="6">
-        <v>947</v>
+        <v>969</v>
       </c>
       <c r="K27" s="6">
-        <v>1670</v>
+        <f t="shared" si="33"/>
+        <v>1422</v>
       </c>
       <c r="L27" s="12">
-        <v>405</v>
+        <f t="shared" si="40"/>
+        <v>438</v>
       </c>
       <c r="M27" s="10">
-        <f t="shared" si="33"/>
-        <v>542</v>
+        <f t="shared" si="38"/>
+        <v>531</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
-        <v>43925</v>
+        <v>43926</v>
       </c>
       <c r="B28" s="6">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C28" s="6">
-        <v>374</v>
+        <v>362</v>
       </c>
       <c r="D28" s="7">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="E28" s="10">
-        <f t="shared" si="31"/>
-        <v>145</v>
+        <f t="shared" si="36"/>
+        <v>134</v>
       </c>
       <c r="F28" s="6">
-        <v>701</v>
+        <v>713</v>
       </c>
       <c r="G28" s="6">
         <v>1308</v>
       </c>
       <c r="H28" s="7">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="I28" s="10">
-        <f t="shared" si="32"/>
-        <v>423</v>
+        <f t="shared" si="37"/>
+        <v>408</v>
       </c>
       <c r="J28" s="6">
-        <v>933</v>
+        <v>947</v>
       </c>
       <c r="K28" s="6">
-        <v>1682</v>
+        <v>1670</v>
       </c>
       <c r="L28" s="12">
-        <v>365</v>
+        <v>405</v>
       </c>
       <c r="M28" s="10">
-        <f t="shared" si="33"/>
-        <v>568</v>
+        <f t="shared" si="38"/>
+        <v>542</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
-        <v>43924</v>
+        <v>43925</v>
       </c>
       <c r="B29" s="6">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C29" s="6">
-        <v>386</v>
+        <v>374</v>
       </c>
       <c r="D29" s="7">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="E29" s="10">
-        <f t="shared" si="31"/>
-        <v>147</v>
+        <f t="shared" si="36"/>
+        <v>145</v>
       </c>
       <c r="F29" s="6">
-        <v>674</v>
+        <v>701</v>
       </c>
       <c r="G29" s="6">
-        <v>1278</v>
+        <v>1308</v>
       </c>
       <c r="H29" s="7">
-        <v>246</v>
+        <v>278</v>
       </c>
       <c r="I29" s="10">
-        <f t="shared" si="32"/>
-        <v>428</v>
+        <f t="shared" si="37"/>
+        <v>423</v>
       </c>
       <c r="J29" s="6">
-        <v>900</v>
+        <v>933</v>
       </c>
       <c r="K29" s="6">
-        <v>1664</v>
+        <v>1682</v>
       </c>
       <c r="L29" s="12">
-        <v>325</v>
+        <v>365</v>
       </c>
       <c r="M29" s="10">
-        <f t="shared" si="33"/>
-        <v>575</v>
+        <f t="shared" si="38"/>
+        <v>568</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
-        <v>43923</v>
+        <v>43924</v>
       </c>
       <c r="B30" s="6">
-        <v>213</v>
+        <v>226</v>
       </c>
       <c r="C30" s="6">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="D30" s="7">
-        <v>63</v>
+        <v>79</v>
       </c>
       <c r="E30" s="10">
-        <f t="shared" si="31"/>
-        <v>150</v>
+        <f t="shared" si="36"/>
+        <v>147</v>
       </c>
       <c r="F30" s="6">
-        <v>652</v>
+        <v>674</v>
       </c>
       <c r="G30" s="6">
-        <v>1308</v>
+        <v>1278</v>
       </c>
       <c r="H30" s="7">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="I30" s="10">
-        <f t="shared" si="32"/>
-        <v>431</v>
+        <f t="shared" si="37"/>
+        <v>428</v>
       </c>
       <c r="J30" s="6">
-        <v>865</v>
+        <v>900</v>
       </c>
       <c r="K30" s="6">
-        <v>1701</v>
+        <v>1664</v>
       </c>
       <c r="L30" s="12">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="M30" s="10">
-        <f t="shared" si="33"/>
-        <v>581</v>
+        <f t="shared" si="38"/>
+        <v>575</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
-        <v>43922</v>
+        <v>43923</v>
       </c>
       <c r="B31" s="6">
-        <v>195</v>
+        <v>213</v>
       </c>
       <c r="C31" s="6">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D31" s="7">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E31" s="10">
-        <f t="shared" si="31"/>
-        <v>135</v>
+        <f t="shared" si="36"/>
+        <v>150</v>
       </c>
       <c r="F31" s="6">
-        <v>625</v>
+        <v>652</v>
       </c>
       <c r="G31" s="6">
-        <v>1316</v>
+        <v>1308</v>
       </c>
       <c r="H31" s="7">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="I31" s="10">
-        <f t="shared" si="32"/>
-        <v>428</v>
+        <f t="shared" si="37"/>
+        <v>431</v>
       </c>
       <c r="J31" s="6">
-        <v>820</v>
+        <v>865</v>
       </c>
       <c r="K31" s="6">
-        <v>1708</v>
+        <v>1701</v>
       </c>
       <c r="L31" s="12">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="M31" s="10">
-        <f t="shared" si="33"/>
-        <v>563</v>
+        <f t="shared" si="38"/>
+        <v>581</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
-        <v>43921</v>
+        <v>43922</v>
       </c>
       <c r="B32" s="6">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="C32" s="6">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="D32" s="7">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="E32" s="10">
-        <f t="shared" si="31"/>
-        <v>136</v>
+        <f t="shared" si="36"/>
+        <v>135</v>
       </c>
       <c r="F32" s="6">
-        <v>591</v>
+        <v>625</v>
       </c>
       <c r="G32" s="6">
-        <v>1311</v>
+        <v>1316</v>
       </c>
       <c r="H32" s="7">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="I32" s="10">
-        <f t="shared" si="32"/>
-        <v>412</v>
+        <f t="shared" si="37"/>
+        <v>428</v>
       </c>
       <c r="J32" s="6">
-        <v>777</v>
+        <v>820</v>
       </c>
       <c r="K32" s="6">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="L32" s="12">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="M32" s="10">
-        <f t="shared" si="33"/>
-        <v>548</v>
+        <f t="shared" si="38"/>
+        <v>563</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
-        <v>43920</v>
+        <v>43921</v>
       </c>
       <c r="B33" s="6">
-        <v>171</v>
+        <v>186</v>
       </c>
       <c r="C33" s="6">
-        <v>424</v>
+        <v>398</v>
       </c>
       <c r="D33" s="7">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="E33" s="10">
-        <f t="shared" si="31"/>
-        <v>130</v>
+        <f t="shared" si="36"/>
+        <v>136</v>
       </c>
       <c r="F33" s="6">
-        <v>554</v>
+        <v>591</v>
       </c>
       <c r="G33" s="6">
-        <v>1368</v>
+        <v>1311</v>
       </c>
       <c r="H33" s="7">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="I33" s="10">
-        <f t="shared" si="32"/>
-        <v>408</v>
+        <f t="shared" si="37"/>
+        <v>412</v>
       </c>
       <c r="J33" s="6">
-        <v>725</v>
+        <v>777</v>
       </c>
       <c r="K33" s="6">
-        <v>1792</v>
+        <v>1709</v>
       </c>
       <c r="L33" s="12">
-        <v>187</v>
+        <v>229</v>
       </c>
       <c r="M33" s="10">
-        <f t="shared" si="33"/>
-        <v>538</v>
+        <f t="shared" si="38"/>
+        <v>548</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A34" s="5">
-        <v>43919</v>
+        <v>43920</v>
       </c>
       <c r="B34" s="6">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="C34" s="6">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="D34" s="7">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E34" s="10">
-        <f t="shared" si="31"/>
-        <v>116</v>
+        <f t="shared" si="36"/>
+        <v>130</v>
       </c>
       <c r="F34" s="6">
-        <v>521</v>
+        <v>554</v>
       </c>
       <c r="G34" s="6">
-        <v>1340</v>
+        <v>1368</v>
       </c>
       <c r="H34" s="7">
-        <v>124</v>
+        <v>146</v>
       </c>
       <c r="I34" s="10">
-        <f t="shared" si="32"/>
-        <v>397</v>
+        <f t="shared" si="37"/>
+        <v>408</v>
       </c>
       <c r="J34" s="6">
-        <v>676</v>
+        <v>725</v>
       </c>
       <c r="K34" s="6">
-        <v>1744</v>
+        <v>1792</v>
       </c>
       <c r="L34" s="12">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="M34" s="10">
-        <f t="shared" si="33"/>
-        <v>513</v>
+        <f t="shared" si="38"/>
+        <v>538</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A35" s="5">
-        <v>43918</v>
+        <v>43919</v>
       </c>
       <c r="B35" s="6">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="C35" s="6">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="D35" s="7">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E35" s="10">
-        <f t="shared" si="31"/>
-        <v>108</v>
+        <f t="shared" si="36"/>
+        <v>116</v>
       </c>
       <c r="F35" s="6">
-        <v>489</v>
+        <v>521</v>
       </c>
       <c r="G35" s="6">
-        <v>1358</v>
+        <v>1340</v>
       </c>
       <c r="H35" s="7">
-        <v>95</v>
+        <v>124</v>
       </c>
       <c r="I35" s="10">
-        <f t="shared" si="32"/>
-        <v>394</v>
+        <f t="shared" si="37"/>
+        <v>397</v>
       </c>
       <c r="J35" s="6">
-        <v>632</v>
+        <v>676</v>
       </c>
       <c r="K35" s="6">
-        <v>1740</v>
+        <v>1744</v>
       </c>
       <c r="L35" s="12">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="M35" s="10">
-        <f t="shared" si="33"/>
-        <v>502</v>
+        <f t="shared" si="38"/>
+        <v>513</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A36" s="5">
-        <v>43917</v>
+        <v>43918</v>
       </c>
       <c r="B36" s="6">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="C36" s="6">
-        <v>357</v>
+        <v>382</v>
       </c>
       <c r="D36" s="7">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="E36" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>108</v>
       </c>
       <c r="F36" s="6">
-        <v>460</v>
+        <v>489</v>
       </c>
       <c r="G36" s="6">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="H36" s="7">
-        <v>79</v>
+        <v>95</v>
       </c>
       <c r="I36" s="10">
-        <f t="shared" si="32"/>
-        <v>381</v>
+        <f t="shared" si="37"/>
+        <v>394</v>
       </c>
       <c r="J36" s="6">
-        <v>593</v>
+        <v>632</v>
       </c>
       <c r="K36" s="6">
-        <v>1714</v>
+        <v>1740</v>
       </c>
       <c r="L36" s="12">
-        <v>104</v>
+        <v>130</v>
       </c>
       <c r="M36" s="10">
-        <f t="shared" si="33"/>
-        <v>489</v>
+        <f t="shared" si="38"/>
+        <v>502</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
-        <v>43916</v>
+        <v>43917</v>
       </c>
       <c r="B37" s="6">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="C37" s="6">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D37" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E37" s="10">
-        <f t="shared" si="31"/>
-        <v>99</v>
+        <f t="shared" si="36"/>
+        <v>108</v>
       </c>
       <c r="F37" s="6">
-        <v>413</v>
+        <v>460</v>
       </c>
       <c r="G37" s="6">
-        <v>1274</v>
+        <v>1357</v>
       </c>
       <c r="H37" s="7">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="I37" s="10">
-        <f t="shared" si="32"/>
-        <v>352</v>
+        <f t="shared" si="37"/>
+        <v>381</v>
       </c>
       <c r="J37" s="6">
-        <v>535</v>
+        <v>593</v>
       </c>
       <c r="K37" s="6">
-        <v>1632</v>
+        <v>1714</v>
       </c>
       <c r="L37" s="12">
-        <v>84</v>
+        <v>104</v>
       </c>
       <c r="M37" s="10">
-        <f t="shared" si="33"/>
-        <v>451</v>
+        <f t="shared" si="38"/>
+        <v>489</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A38" s="5">
-        <v>43915</v>
+        <v>43916</v>
       </c>
       <c r="B38" s="6">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C38" s="6">
-        <v>336</v>
+        <v>358</v>
       </c>
       <c r="D38" s="7">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="E38" s="10">
-        <f t="shared" si="31"/>
-        <v>103</v>
+        <f t="shared" si="36"/>
+        <v>99</v>
       </c>
       <c r="F38" s="6">
-        <v>371</v>
+        <v>413</v>
       </c>
       <c r="G38" s="6">
-        <v>1116</v>
+        <v>1274</v>
       </c>
       <c r="H38" s="7">
         <v>61</v>
       </c>
       <c r="I38" s="10">
-        <f t="shared" si="32"/>
-        <v>310</v>
+        <f t="shared" si="37"/>
+        <v>352</v>
       </c>
       <c r="J38" s="6">
-        <v>489</v>
+        <v>535</v>
       </c>
       <c r="K38" s="6">
-        <v>1452</v>
+        <v>1632</v>
       </c>
       <c r="L38" s="12">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="M38" s="10">
-        <f t="shared" si="33"/>
-        <v>413</v>
+        <f t="shared" si="38"/>
+        <v>451</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A39" s="5">
-        <v>43914</v>
+        <v>43915</v>
       </c>
       <c r="B39" s="6">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C39" s="6">
-        <v>306</v>
+        <v>336</v>
       </c>
       <c r="D39" s="7">
         <v>15</v>
       </c>
       <c r="E39" s="10">
-        <f t="shared" si="31"/>
-        <v>96</v>
+        <f t="shared" si="36"/>
+        <v>103</v>
       </c>
       <c r="F39" s="6">
-        <v>330</v>
+        <v>371</v>
       </c>
       <c r="G39" s="6">
-        <v>1041</v>
+        <v>1116</v>
       </c>
       <c r="H39" s="7">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="I39" s="10">
-        <f t="shared" si="32"/>
-        <v>294</v>
+        <f t="shared" si="37"/>
+        <v>310</v>
       </c>
       <c r="J39" s="6">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="K39" s="6">
-        <v>1345</v>
+        <v>1452</v>
       </c>
       <c r="L39" s="12">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="M39" s="10">
-        <f t="shared" si="33"/>
-        <v>390</v>
+        <f t="shared" si="38"/>
+        <v>413</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A40" s="5">
-        <v>43913</v>
+        <v>43914</v>
       </c>
       <c r="B40" s="6">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C40" s="6">
         <v>306</v>
@@ -9285,391 +9360,400 @@
         <v>15</v>
       </c>
       <c r="E40" s="10">
-        <f t="shared" si="31"/>
-        <v>93</v>
+        <f t="shared" si="36"/>
+        <v>96</v>
       </c>
       <c r="F40" s="6">
-        <v>299</v>
+        <v>330</v>
       </c>
       <c r="G40" s="6">
-        <v>905</v>
+        <v>1041</v>
       </c>
       <c r="H40" s="7">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="I40" s="10">
-        <f t="shared" si="32"/>
-        <v>271</v>
+        <f t="shared" si="37"/>
+        <v>294</v>
       </c>
       <c r="J40" s="6">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="K40" s="6">
-        <v>1211</v>
+        <v>1345</v>
       </c>
       <c r="L40" s="12">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="M40" s="10">
-        <f t="shared" si="33"/>
-        <v>364</v>
+        <f t="shared" si="38"/>
+        <v>390</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A41" s="5">
-        <v>43912</v>
+        <v>43913</v>
       </c>
       <c r="B41" s="6">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C41" s="6">
-        <v>328</v>
+        <v>306</v>
       </c>
       <c r="D41" s="7">
         <v>15</v>
       </c>
       <c r="E41" s="10">
-        <f t="shared" si="31"/>
-        <v>89</v>
+        <f t="shared" si="36"/>
+        <v>93</v>
       </c>
       <c r="F41" s="6">
-        <v>276</v>
+        <v>299</v>
       </c>
       <c r="G41" s="6">
-        <v>952</v>
+        <v>905</v>
       </c>
       <c r="H41" s="7">
         <v>28</v>
       </c>
       <c r="I41" s="10">
-        <f t="shared" si="32"/>
-        <v>248</v>
+        <f t="shared" si="37"/>
+        <v>271</v>
       </c>
       <c r="J41" s="6">
-        <v>390</v>
+        <v>417</v>
       </c>
       <c r="K41" s="6">
-        <v>1280</v>
+        <v>1211</v>
       </c>
       <c r="L41" s="12">
         <v>43</v>
       </c>
       <c r="M41" s="10">
-        <f t="shared" si="33"/>
-        <v>337</v>
+        <f t="shared" si="38"/>
+        <v>364</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A42" s="5">
-        <v>43911</v>
+        <v>43912</v>
       </c>
       <c r="B42" s="6">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="C42" s="6">
-        <v>264</v>
-      </c>
-      <c r="D42" s="8"/>
+        <v>328</v>
+      </c>
+      <c r="D42" s="7">
+        <v>15</v>
+      </c>
       <c r="E42" s="10">
-        <f t="shared" si="31"/>
-        <v>80</v>
+        <f t="shared" si="36"/>
+        <v>89</v>
       </c>
       <c r="F42" s="6">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="G42" s="6">
-        <v>840</v>
-      </c>
-      <c r="H42" s="8"/>
+        <v>952</v>
+      </c>
+      <c r="H42" s="7">
+        <v>28</v>
+      </c>
       <c r="I42" s="10">
-        <f t="shared" si="32"/>
-        <v>238</v>
+        <f t="shared" si="37"/>
+        <v>248</v>
       </c>
       <c r="J42" s="6">
-        <f t="shared" ref="J42:J64" si="36">B42+F42</f>
-        <v>318</v>
+        <v>390</v>
       </c>
       <c r="K42" s="6">
-        <v>1104</v>
-      </c>
-      <c r="L42" s="13"/>
+        <v>1280</v>
+      </c>
+      <c r="L42" s="12">
+        <v>43</v>
+      </c>
       <c r="M42" s="10">
-        <f t="shared" si="33"/>
-        <v>318</v>
+        <f t="shared" si="38"/>
+        <v>337</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A43" s="5">
-        <v>43910</v>
+        <v>43911</v>
       </c>
       <c r="B43" s="6">
-        <v>66</v>
+        <v>80</v>
       </c>
       <c r="C43" s="6">
-        <v>218</v>
+        <v>264</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="10">
-        <f t="shared" si="31"/>
-        <v>66</v>
+        <f t="shared" si="36"/>
+        <v>80</v>
       </c>
       <c r="F43" s="6">
-        <v>182</v>
+        <v>238</v>
       </c>
       <c r="G43" s="6">
-        <v>716</v>
+        <v>840</v>
       </c>
       <c r="H43" s="8"/>
       <c r="I43" s="10">
-        <f t="shared" si="32"/>
-        <v>182</v>
+        <f t="shared" si="37"/>
+        <v>238</v>
       </c>
       <c r="J43" s="6">
-        <f t="shared" si="36"/>
-        <v>248</v>
+        <f t="shared" ref="J43:J65" si="41">B43+F43</f>
+        <v>318</v>
       </c>
       <c r="K43" s="6">
-        <v>934</v>
+        <v>1104</v>
       </c>
       <c r="L43" s="13"/>
       <c r="M43" s="10">
-        <f t="shared" si="33"/>
-        <v>248</v>
+        <f t="shared" si="38"/>
+        <v>318</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A44" s="5">
-        <v>43909</v>
+        <v>43910</v>
       </c>
       <c r="B44" s="6">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C44" s="6">
-        <v>187</v>
+        <v>218</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="10">
-        <f t="shared" si="31"/>
-        <v>57</v>
+        <f t="shared" si="36"/>
+        <v>66</v>
       </c>
       <c r="F44" s="6">
-        <v>154</v>
+        <v>182</v>
       </c>
       <c r="G44" s="6">
-        <v>628</v>
+        <v>716</v>
       </c>
       <c r="H44" s="8"/>
       <c r="I44" s="10">
-        <f t="shared" si="32"/>
-        <v>154</v>
+        <f t="shared" si="37"/>
+        <v>182</v>
       </c>
       <c r="J44" s="6">
-        <f t="shared" si="36"/>
-        <v>211</v>
+        <f t="shared" si="41"/>
+        <v>248</v>
       </c>
       <c r="K44" s="6">
-        <v>815</v>
+        <v>934</v>
       </c>
       <c r="L44" s="13"/>
       <c r="M44" s="10">
-        <f t="shared" si="33"/>
-        <v>211</v>
+        <f t="shared" si="38"/>
+        <v>248</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A45" s="5">
-        <v>43908</v>
+        <v>43909</v>
       </c>
       <c r="B45" s="6">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C45" s="6">
-        <v>152</v>
+        <v>187</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="10">
-        <f t="shared" si="31"/>
-        <v>47</v>
+        <f t="shared" si="36"/>
+        <v>57</v>
       </c>
       <c r="F45" s="6">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="G45" s="6">
-        <v>539</v>
+        <v>628</v>
       </c>
       <c r="H45" s="8"/>
       <c r="I45" s="10">
-        <f t="shared" si="32"/>
-        <v>124</v>
+        <f t="shared" si="37"/>
+        <v>154</v>
       </c>
       <c r="J45" s="6">
-        <f t="shared" si="36"/>
-        <v>171</v>
+        <f t="shared" si="41"/>
+        <v>211</v>
       </c>
       <c r="K45" s="6">
-        <v>691</v>
+        <v>815</v>
       </c>
       <c r="L45" s="13"/>
       <c r="M45" s="10">
-        <f t="shared" si="33"/>
-        <v>171</v>
+        <f t="shared" si="38"/>
+        <v>211</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A46" s="5">
-        <v>43907</v>
+        <v>43908</v>
       </c>
       <c r="B46" s="6">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C46" s="6">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="10">
-        <f t="shared" si="31"/>
-        <v>41</v>
+        <f t="shared" si="36"/>
+        <v>47</v>
       </c>
       <c r="F46" s="6">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="G46" s="6">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="H46" s="8"/>
       <c r="I46" s="10">
-        <f t="shared" si="32"/>
-        <v>109</v>
+        <f t="shared" si="37"/>
+        <v>124</v>
       </c>
       <c r="J46" s="6">
-        <f t="shared" si="36"/>
-        <v>150</v>
+        <f t="shared" si="41"/>
+        <v>171</v>
       </c>
       <c r="K46" s="6">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="L46" s="13"/>
       <c r="M46" s="10">
-        <f t="shared" si="33"/>
-        <v>150</v>
+        <f t="shared" si="38"/>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A47" s="5">
-        <v>43906</v>
+        <v>43907</v>
       </c>
       <c r="B47" s="6">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C47" s="6">
         <v>164</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="10">
-        <f t="shared" si="31"/>
-        <v>34</v>
+        <f t="shared" si="36"/>
+        <v>41</v>
       </c>
       <c r="F47" s="6">
-        <v>77</v>
+        <v>109</v>
       </c>
       <c r="G47" s="6">
-        <v>450</v>
+        <v>524</v>
       </c>
       <c r="H47" s="8"/>
       <c r="I47" s="10">
-        <f t="shared" si="32"/>
-        <v>77</v>
+        <f t="shared" si="37"/>
+        <v>109</v>
       </c>
       <c r="J47" s="6">
-        <f t="shared" si="36"/>
-        <v>111</v>
+        <f t="shared" si="41"/>
+        <v>150</v>
       </c>
       <c r="K47" s="6">
-        <v>614</v>
+        <v>688</v>
       </c>
       <c r="L47" s="13"/>
       <c r="M47" s="10">
-        <f t="shared" si="33"/>
-        <v>111</v>
+        <f t="shared" si="38"/>
+        <v>150</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A48" s="5">
-        <v>43905</v>
+        <v>43906</v>
       </c>
       <c r="B48" s="6">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="C48" s="6">
-        <v>144</v>
+        <v>164</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="10">
-        <f t="shared" si="31"/>
-        <v>20</v>
+        <f t="shared" si="36"/>
+        <v>34</v>
       </c>
       <c r="F48" s="6">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="G48" s="6">
-        <v>360</v>
+        <v>450</v>
       </c>
       <c r="H48" s="8"/>
       <c r="I48" s="10">
-        <f t="shared" si="32"/>
-        <v>70</v>
+        <f t="shared" si="37"/>
+        <v>77</v>
       </c>
       <c r="J48" s="6">
-        <f t="shared" si="36"/>
-        <v>90</v>
+        <f t="shared" si="41"/>
+        <v>111</v>
       </c>
       <c r="K48" s="6">
-        <v>504</v>
+        <v>614</v>
       </c>
       <c r="L48" s="13"/>
       <c r="M48" s="10">
-        <f t="shared" si="33"/>
-        <v>90</v>
+        <f t="shared" si="38"/>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A49" s="5">
-        <v>43904</v>
+        <v>43905</v>
       </c>
       <c r="B49" s="6">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C49" s="6">
-        <v>121</v>
+        <v>144</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="10">
-        <f t="shared" si="31"/>
-        <v>13</v>
+        <f t="shared" si="36"/>
+        <v>20</v>
       </c>
       <c r="F49" s="6">
-        <v>60</v>
-      </c>
-      <c r="G49" s="6"/>
+        <v>70</v>
+      </c>
+      <c r="G49" s="6">
+        <v>360</v>
+      </c>
       <c r="H49" s="8"/>
       <c r="I49" s="10">
-        <f t="shared" si="32"/>
-        <v>60</v>
+        <f t="shared" si="37"/>
+        <v>70</v>
       </c>
       <c r="J49" s="6">
-        <f t="shared" si="36"/>
-        <v>73</v>
-      </c>
-      <c r="K49" s="6"/>
+        <f t="shared" si="41"/>
+        <v>90</v>
+      </c>
+      <c r="K49" s="6">
+        <v>504</v>
+      </c>
       <c r="L49" s="13"/>
       <c r="M49" s="10">
-        <f t="shared" si="33"/>
-        <v>73</v>
+        <f t="shared" si="38"/>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A50" s="5">
-        <v>43903</v>
+        <v>43904</v>
       </c>
       <c r="B50" s="6">
         <v>13</v>
@@ -9679,231 +9763,227 @@
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>13</v>
       </c>
       <c r="F50" s="6">
-        <v>33</v>
-      </c>
-      <c r="G50" s="6">
-        <v>406</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G50" s="6"/>
       <c r="H50" s="8"/>
       <c r="I50" s="10">
-        <f t="shared" si="32"/>
-        <v>33</v>
+        <f t="shared" si="37"/>
+        <v>60</v>
       </c>
       <c r="J50" s="6">
-        <f t="shared" si="36"/>
-        <v>46</v>
-      </c>
-      <c r="K50" s="6">
-        <v>527</v>
-      </c>
+        <f t="shared" si="41"/>
+        <v>73</v>
+      </c>
+      <c r="K50" s="6"/>
       <c r="L50" s="13"/>
       <c r="M50" s="10">
-        <f t="shared" si="33"/>
-        <v>46</v>
+        <f t="shared" si="38"/>
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A51" s="5">
-        <v>43902</v>
+        <v>43903</v>
       </c>
       <c r="B51" s="6">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C51" s="6">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="10">
-        <f t="shared" si="31"/>
-        <v>9</v>
+        <f t="shared" si="36"/>
+        <v>13</v>
       </c>
       <c r="F51" s="6">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G51" s="6">
-        <v>338</v>
+        <v>406</v>
       </c>
       <c r="H51" s="8"/>
       <c r="I51" s="10">
-        <f t="shared" si="32"/>
-        <v>23</v>
+        <f t="shared" si="37"/>
+        <v>33</v>
       </c>
       <c r="J51" s="6">
-        <f t="shared" si="36"/>
-        <v>32</v>
+        <f t="shared" si="41"/>
+        <v>46</v>
       </c>
       <c r="K51" s="6">
-        <v>421</v>
+        <v>527</v>
       </c>
       <c r="L51" s="13"/>
       <c r="M51" s="10">
-        <f t="shared" si="33"/>
-        <v>32</v>
+        <f t="shared" si="38"/>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A52" s="5">
-        <v>43901</v>
+        <v>43902</v>
       </c>
       <c r="B52" s="6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" s="6">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="10">
-        <f t="shared" si="31"/>
-        <v>8</v>
+        <f t="shared" si="36"/>
+        <v>9</v>
       </c>
       <c r="F52" s="6">
         <v>23</v>
       </c>
       <c r="G52" s="6">
-        <v>325</v>
+        <v>338</v>
       </c>
       <c r="H52" s="8"/>
       <c r="I52" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>23</v>
       </c>
       <c r="J52" s="6">
-        <f t="shared" si="36"/>
-        <v>31</v>
+        <f t="shared" si="41"/>
+        <v>32</v>
       </c>
       <c r="K52" s="6">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="L52" s="13"/>
       <c r="M52" s="10">
-        <f t="shared" si="33"/>
-        <v>31</v>
+        <f t="shared" si="38"/>
+        <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A53" s="5">
-        <v>43900</v>
+        <v>43901</v>
       </c>
       <c r="B53" s="6">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C53" s="6">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="10">
-        <f t="shared" si="31"/>
-        <v>6</v>
+        <f t="shared" si="36"/>
+        <v>8</v>
       </c>
       <c r="F53" s="6">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="G53" s="6">
-        <v>248</v>
+        <v>325</v>
       </c>
       <c r="H53" s="8"/>
       <c r="I53" s="10">
-        <f t="shared" si="32"/>
-        <v>16</v>
+        <f t="shared" si="37"/>
+        <v>23</v>
       </c>
       <c r="J53" s="6">
-        <f t="shared" si="36"/>
-        <v>22</v>
+        <f t="shared" si="41"/>
+        <v>31</v>
       </c>
       <c r="K53" s="6">
-        <v>314</v>
+        <v>403</v>
       </c>
       <c r="L53" s="13"/>
       <c r="M53" s="10">
-        <f t="shared" si="33"/>
-        <v>22</v>
+        <f t="shared" si="38"/>
+        <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A54" s="5">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="B54" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C54" s="6">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="10">
-        <f t="shared" si="31"/>
-        <v>5</v>
+        <f t="shared" si="36"/>
+        <v>6</v>
       </c>
       <c r="F54" s="6">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G54" s="6">
-        <v>144</v>
+        <v>248</v>
       </c>
       <c r="H54" s="8"/>
       <c r="I54" s="10">
-        <f t="shared" si="32"/>
-        <v>13</v>
+        <f t="shared" si="37"/>
+        <v>16</v>
       </c>
       <c r="J54" s="6">
-        <f t="shared" si="36"/>
-        <v>18</v>
+        <f t="shared" si="41"/>
+        <v>22</v>
       </c>
       <c r="K54" s="6">
-        <v>209</v>
+        <v>314</v>
       </c>
       <c r="L54" s="13"/>
       <c r="M54" s="10">
-        <f t="shared" si="33"/>
-        <v>18</v>
+        <f t="shared" si="38"/>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A55" s="5">
-        <v>43898</v>
+        <v>43899</v>
       </c>
       <c r="B55" s="6">
         <v>5</v>
       </c>
       <c r="C55" s="6">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="F55" s="6">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="G55" s="6">
-        <v>28</v>
+        <v>144</v>
       </c>
       <c r="H55" s="8"/>
       <c r="I55" s="10">
-        <f t="shared" si="32"/>
-        <v>9</v>
+        <f t="shared" si="37"/>
+        <v>13</v>
       </c>
       <c r="J55" s="6">
-        <f t="shared" si="36"/>
-        <v>14</v>
+        <f t="shared" si="41"/>
+        <v>18</v>
       </c>
       <c r="K55" s="6">
-        <v>46</v>
+        <v>209</v>
       </c>
       <c r="L55" s="13"/>
       <c r="M55" s="10">
-        <f t="shared" si="33"/>
-        <v>14</v>
+        <f t="shared" si="38"/>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A56" s="5">
-        <v>43897</v>
+        <v>43898</v>
       </c>
       <c r="B56" s="6">
         <v>5</v>
@@ -9913,86 +9993,86 @@
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>5</v>
       </c>
       <c r="F56" s="6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G56" s="6">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H56" s="8"/>
       <c r="I56" s="10">
-        <f t="shared" si="32"/>
-        <v>7</v>
+        <f t="shared" si="37"/>
+        <v>9</v>
       </c>
       <c r="J56" s="6">
-        <f t="shared" si="36"/>
-        <v>12</v>
+        <f t="shared" si="41"/>
+        <v>14</v>
       </c>
       <c r="K56" s="6">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L56" s="13"/>
       <c r="M56" s="10">
-        <f t="shared" si="33"/>
-        <v>12</v>
+        <f t="shared" si="38"/>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A57" s="5">
-        <v>43896</v>
+        <v>43897</v>
       </c>
       <c r="B57" s="6">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C57" s="6">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="10">
-        <f t="shared" si="31"/>
-        <v>4</v>
+        <f t="shared" si="36"/>
+        <v>5</v>
       </c>
       <c r="F57" s="6">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="G57" s="6">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H57" s="8"/>
       <c r="I57" s="10">
-        <f t="shared" si="32"/>
-        <v>3</v>
+        <f t="shared" si="37"/>
+        <v>7</v>
       </c>
       <c r="J57" s="6">
-        <f t="shared" si="36"/>
-        <v>7</v>
+        <f t="shared" si="41"/>
+        <v>12</v>
       </c>
       <c r="K57" s="6">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="L57" s="13"/>
       <c r="M57" s="10">
-        <f t="shared" si="33"/>
-        <v>7</v>
+        <f t="shared" si="38"/>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A58" s="5">
-        <v>43895</v>
+        <v>43896</v>
       </c>
       <c r="B58" s="6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C58" s="6">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="10">
-        <f t="shared" si="31"/>
-        <v>2</v>
+        <f t="shared" si="36"/>
+        <v>4</v>
       </c>
       <c r="F58" s="6">
         <v>3</v>
@@ -10002,25 +10082,25 @@
       </c>
       <c r="H58" s="8"/>
       <c r="I58" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>3</v>
       </c>
       <c r="J58" s="6">
-        <f t="shared" si="36"/>
-        <v>5</v>
+        <f t="shared" si="41"/>
+        <v>7</v>
       </c>
       <c r="K58" s="6">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L58" s="13"/>
       <c r="M58" s="10">
-        <f t="shared" si="33"/>
-        <v>5</v>
+        <f t="shared" si="38"/>
+        <v>7</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A59" s="5">
-        <v>43894</v>
+        <v>43895</v>
       </c>
       <c r="B59" s="6">
         <v>2</v>
@@ -10030,67 +10110,71 @@
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>2</v>
       </c>
       <c r="F59" s="6">
-        <v>2</v>
-      </c>
-      <c r="G59" s="6"/>
+        <v>3</v>
+      </c>
+      <c r="G59" s="6">
+        <v>22</v>
+      </c>
       <c r="H59" s="8"/>
       <c r="I59" s="10">
-        <f t="shared" si="32"/>
-        <v>2</v>
+        <f t="shared" si="37"/>
+        <v>3</v>
       </c>
       <c r="J59" s="6">
-        <f t="shared" si="36"/>
-        <v>4</v>
-      </c>
-      <c r="K59" s="6"/>
+        <f t="shared" si="41"/>
+        <v>5</v>
+      </c>
+      <c r="K59" s="6">
+        <v>37</v>
+      </c>
       <c r="L59" s="13"/>
       <c r="M59" s="10">
-        <f t="shared" si="33"/>
-        <v>4</v>
+        <f t="shared" si="38"/>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A60" s="5">
-        <v>43893</v>
+        <v>43894</v>
       </c>
       <c r="B60" s="6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C60" s="6">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="10">
-        <f t="shared" si="31"/>
-        <v>0</v>
+        <f t="shared" si="36"/>
+        <v>2</v>
       </c>
       <c r="F60" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G60" s="6"/>
       <c r="H60" s="8"/>
       <c r="I60" s="10">
-        <f t="shared" si="32"/>
-        <v>1</v>
+        <f t="shared" si="37"/>
+        <v>2</v>
       </c>
       <c r="J60" s="6">
-        <f t="shared" si="36"/>
-        <v>1</v>
+        <f t="shared" si="41"/>
+        <v>4</v>
       </c>
       <c r="K60" s="6"/>
       <c r="L60" s="13"/>
       <c r="M60" s="10">
-        <f t="shared" si="33"/>
-        <v>1</v>
+        <f t="shared" si="38"/>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A61" s="5">
-        <v>43892</v>
+        <v>43893</v>
       </c>
       <c r="B61" s="6">
         <v>0</v>
@@ -10100,7 +10184,7 @@
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="F61" s="6">
@@ -10109,23 +10193,23 @@
       <c r="G61" s="6"/>
       <c r="H61" s="8"/>
       <c r="I61" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="J61" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="K61" s="6"/>
       <c r="L61" s="13"/>
       <c r="M61" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A62" s="5">
-        <v>43891</v>
+        <v>43892</v>
       </c>
       <c r="B62" s="6">
         <v>0</v>
@@ -10135,7 +10219,7 @@
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="F62" s="6">
@@ -10144,23 +10228,23 @@
       <c r="G62" s="6"/>
       <c r="H62" s="8"/>
       <c r="I62" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="J62" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="K62" s="6"/>
       <c r="L62" s="13"/>
       <c r="M62" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A63" s="5">
-        <v>43890</v>
+        <v>43891</v>
       </c>
       <c r="B63" s="6">
         <v>0</v>
@@ -10170,7 +10254,7 @@
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="F63" s="6">
@@ -10179,23 +10263,23 @@
       <c r="G63" s="6"/>
       <c r="H63" s="8"/>
       <c r="I63" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="J63" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="K63" s="6"/>
       <c r="L63" s="13"/>
       <c r="M63" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A64" s="5">
-        <v>43889</v>
+        <v>43890</v>
       </c>
       <c r="B64" s="6">
         <v>0</v>
@@ -10205,7 +10289,7 @@
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="10">
-        <f t="shared" si="31"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="F64" s="6">
@@ -10214,111 +10298,140 @@
       <c r="G64" s="6"/>
       <c r="H64" s="8"/>
       <c r="I64" s="10">
-        <f t="shared" si="32"/>
+        <f t="shared" si="37"/>
         <v>1</v>
       </c>
       <c r="J64" s="6">
-        <f t="shared" si="36"/>
+        <f t="shared" si="41"/>
         <v>1</v>
       </c>
       <c r="K64" s="6"/>
       <c r="L64" s="13"/>
       <c r="M64" s="10">
-        <f t="shared" si="33"/>
+        <f t="shared" si="38"/>
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="4:12" x14ac:dyDescent="0.15">
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="L65" s="9"/>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A65" s="5">
+        <v>43889</v>
+      </c>
+      <c r="B65" s="6">
+        <v>0</v>
+      </c>
+      <c r="C65" s="6">
+        <v>0</v>
+      </c>
+      <c r="D65" s="8"/>
+      <c r="E65" s="10">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="F65" s="6">
+        <v>1</v>
+      </c>
+      <c r="G65" s="6"/>
+      <c r="H65" s="8"/>
+      <c r="I65" s="10">
+        <f t="shared" si="37"/>
+        <v>1</v>
+      </c>
+      <c r="J65" s="6">
+        <f t="shared" si="41"/>
+        <v>1</v>
+      </c>
+      <c r="K65" s="6"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="10">
+        <f t="shared" si="38"/>
+        <v>1</v>
+      </c>
     </row>
-    <row r="66" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
       <c r="H66" s="9"/>
       <c r="L66" s="9"/>
     </row>
-    <row r="67" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
       <c r="H67" s="9"/>
       <c r="L67" s="9"/>
     </row>
-    <row r="68" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
       <c r="H68" s="9"/>
       <c r="L68" s="9"/>
     </row>
-    <row r="69" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
       <c r="H69" s="9"/>
       <c r="L69" s="9"/>
     </row>
-    <row r="70" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
       <c r="H70" s="9"/>
       <c r="L70" s="9"/>
     </row>
-    <row r="71" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
       <c r="H71" s="9"/>
       <c r="L71" s="9"/>
     </row>
-    <row r="72" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
       <c r="H72" s="9"/>
       <c r="L72" s="9"/>
     </row>
-    <row r="73" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
       <c r="H73" s="9"/>
       <c r="L73" s="9"/>
     </row>
-    <row r="74" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
       <c r="H74" s="9"/>
       <c r="L74" s="9"/>
     </row>
-    <row r="75" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
       <c r="H75" s="9"/>
       <c r="L75" s="9"/>
     </row>
-    <row r="76" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
       <c r="H76" s="9"/>
       <c r="L76" s="9"/>
     </row>
-    <row r="77" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
       <c r="H77" s="9"/>
       <c r="L77" s="9"/>
     </row>
-    <row r="78" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
       <c r="H78" s="9"/>
       <c r="L78" s="9"/>
     </row>
-    <row r="79" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
       <c r="H79" s="9"/>
       <c r="L79" s="9"/>
     </row>
-    <row r="80" spans="4:12" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.15">
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
       <c r="H80" s="9"/>
@@ -10375,6 +10488,8 @@
     <row r="89" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="L89" s="9"/>
     </row>
     <row r="90" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D90" s="9"/>
@@ -10383,6 +10498,10 @@
     <row r="91" spans="4:12" x14ac:dyDescent="0.15">
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
+    </row>
+    <row r="92" spans="4:12" x14ac:dyDescent="0.15">
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="3">
